--- a/Bill of Materials/Materials.xlsx
+++ b/Bill of Materials/Materials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heberley\Documents\GitHub\OPU-DLHM\Bill of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AA2D4FF-0937-4BFA-B132-A46B368B07EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6EADF8-86F8-4F8A-A41F-837515C87208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CEFA7DAA-4608-4AFE-9D95-500013FBCD89}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t xml:space="preserve">Bill of Materials </t>
   </si>
@@ -43,21 +43,12 @@
     <t>Item</t>
   </si>
   <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Suppliers</t>
-  </si>
-  <si>
     <t>2.2K resistor</t>
   </si>
   <si>
     <t>18K resistor</t>
   </si>
   <si>
-    <t>Amazon/Aliexpress</t>
-  </si>
-  <si>
     <t>FFC to DIP 45 Pins</t>
   </si>
   <si>
@@ -86,6 +77,54 @@
   </si>
   <si>
     <t>MCP6002(DIP)</t>
+  </si>
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor </t>
+  </si>
+  <si>
+    <t>Interface Cable</t>
+  </si>
+  <si>
+    <t>DIP SWITCH</t>
+  </si>
+  <si>
+    <t>Condensers</t>
+  </si>
+  <si>
+    <t>OPAM</t>
+  </si>
+  <si>
+    <t>Power driver</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Amazon or Aliexpress</t>
+  </si>
+  <si>
+    <t>Cost Per Unit - USD</t>
+  </si>
+  <si>
+    <t>Total Cost - USD</t>
+  </si>
+  <si>
+    <t>Source of Materials</t>
+  </si>
+  <si>
+    <t>Material Type</t>
+  </si>
+  <si>
+    <t>Non-specific</t>
+  </si>
+  <si>
+    <t>Ceramic</t>
+  </si>
+  <si>
+    <t>SemiConductor</t>
   </si>
 </sst>
 </file>
@@ -117,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,16 +164,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,160 +508,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBB4AA8-4487-4165-B5FC-39CE32F5FCCC}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="3">
+        <f>D3*C3</f>
+        <v>0.25</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C4" s="3">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="D4" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E13" si="0">D4*C4</f>
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C7" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="G12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
+      <c r="C13" s="3">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
+      <c r="D13" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
